--- a/data/test01.xlsx
+++ b/data/test01.xlsx
@@ -18,7 +18,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0_ "/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="2">
     <font>
       <name val="等线"/>
       <family val="2"/>
@@ -33,34 +33,13 @@
       <sz val="9"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <b val="1"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4FB164"/>
-        <bgColor rgb="FF4FB164"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F3490D"/>
-        <bgColor rgb="00F3490D"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -75,14 +54,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -426,22 +403,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.15"/>
   <cols>
-    <col width="8.92578125" customWidth="1" style="5" min="1" max="1"/>
+    <col width="8.92578125" customWidth="1" style="4" min="1" max="1"/>
     <col width="10.5703125" customWidth="1" style="2" min="2" max="2"/>
     <col width="58.5703125" customWidth="1" style="1" min="3" max="3"/>
     <col width="13.85546875" customWidth="1" style="2" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>用例编号</t>
         </is>
@@ -468,7 +445,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="n">
+      <c r="A2" s="4" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -488,7 +465,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="n">
+      <c r="A3" s="4" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -508,7 +485,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="n">
+      <c r="A4" s="4" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,7 +505,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="n">
+      <c r="A5" s="4" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -544,66 +521,6 @@
       <c r="D5" t="inlineStr">
         <is>
           <t>点击搜索</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>wait_s</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>{'secs':3}</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>等待3s</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>assert_text</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>{'name':'xpath','value':'//a[@class="toindex"]','expect':'百q度首页'}</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>断言</t>
-        </is>
-      </c>
-      <c r="E7" s="6" t="inlineStr">
-        <is>
-          <t>fail</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>quit</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>关闭浏览器</t>
         </is>
       </c>
     </row>

--- a/data/test01.xlsx
+++ b/data/test01.xlsx
@@ -1,42 +1,105 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HF03RC\mycode\my_hhf\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE467562-E858-4FCF-8AD7-E8FC44108283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="583" yWindow="0" windowWidth="22868" windowHeight="10894" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="583" yWindow="0" windowWidth="22868" windowHeight="10894" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="百度搜索测试用例" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="百度搜索测试用例" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>用例编号</t>
+  </si>
+  <si>
+    <t>操作行为</t>
+  </si>
+  <si>
+    <t>参数</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>实际结果</t>
+  </si>
+  <si>
+    <t>open_browser</t>
+  </si>
+  <si>
+    <t>{'txt':'Chrome'}</t>
+  </si>
+  <si>
+    <t>启动浏览器</t>
+  </si>
+  <si>
+    <t>open_url</t>
+  </si>
+  <si>
+    <t>{'url':'https://baidu.com'}</t>
+  </si>
+  <si>
+    <t>打开浏览器url</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>{'name':'id','value':'kw','txt':'Chrome'}</t>
+  </si>
+  <si>
+    <t>输入搜索值</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>{'name':'id','value':'su'}</t>
+  </si>
+  <si>
+    <t>点击搜索003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -54,85 +117,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -398,134 +401,97 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.15"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col width="8.92578125" customWidth="1" style="4" min="1" max="1"/>
-    <col width="10.5703125" customWidth="1" style="2" min="2" max="2"/>
-    <col width="58.5703125" customWidth="1" style="1" min="3" max="3"/>
-    <col width="13.85546875" customWidth="1" style="2" min="4" max="4"/>
+    <col min="1" max="1" width="8.92578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="58.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>用例编号</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>操作行为</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>参数</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>描述</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>实际结果</t>
-        </is>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="4" t="n">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>open_browser</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>{'txt':'Chrome'}</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>启动浏览器</t>
-        </is>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="4" t="n">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>open_url</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>{'url':'https://baidu.com'}</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>打开浏览器url</t>
-        </is>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="4" t="n">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>input</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>{'name':'id','value':'kw','txt':'Chrome'}</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>输入搜索值</t>
-        </is>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="4" t="n">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>{'name':'id','value':'su'}</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>点击搜索</t>
-        </is>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>